--- a/server/public/templates/reports_2023-10-22_2023-10-28.xlsx
+++ b/server/public/templates/reports_2023-10-22_2023-10-28.xlsx
@@ -11,48 +11,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Full Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+  <si>
+    <t>Fullname</t>
   </si>
   <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>2023-10-23</t>
+    <t>ContactNo</t>
   </si>
   <si>
     <t>Karl Borromeo</t>
   </si>
   <si>
-    <t>monthly-payment</t>
-  </si>
-  <si>
-    <t>2023-10-24</t>
-  </si>
-  <si>
-    <t>2023-10-25</t>
-  </si>
-  <si>
-    <t>2023-10-26</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>2023-10-28</t>
-  </si>
-  <si>
-    <t>2023-10-22</t>
-  </si>
-  <si>
-    <t>Total:</t>
+    <t>09123456789</t>
+  </si>
+  <si>
+    <t>Mary Grace Galllardo</t>
+  </si>
+  <si>
+    <t>Kryzz Andig</t>
   </si>
 </sst>
 </file>
@@ -429,16 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,142 +424,43 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>3000</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>3000</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>3000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>3000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>3000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>3000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>27000</v>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
